--- a/Implementation/TechStack/MicroServices/RefStack.xlsx
+++ b/Implementation/TechStack/MicroServices/RefStack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wspc\OpenBooks\SWPe-BoK\Implementation\TechStack\MicroServices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6675BD-8549-4B50-ACF6-63F33384C48B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB31EBA-DF67-4BD3-8F6E-31F7B9B109C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{166C0696-8797-4D05-95D8-7AF84030E75C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{166C0696-8797-4D05-95D8-7AF84030E75C}"/>
   </bookViews>
   <sheets>
     <sheet name="Layers" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF3B484-585D-45BF-8A93-D0552DB419AB}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52906305-D331-4A6E-9448-A630508566AB}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1603,7 +1603,7 @@
         <v>157</v>
       </c>
       <c r="H22">
-        <v>5200000</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="H23">
         <f>H22*G23</f>
-        <v>2080000</v>
+        <v>2160000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H24">
         <f>H22+H23</f>
-        <v>7280000</v>
+        <v>7560000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
